--- a/DrCleanCare/App_Data/Export_Orders_Template.xlsx
+++ b/DrCleanCare/App_Data/Export_Orders_Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>HTTT</t>
+  </si>
+  <si>
+    <t>Phí vận chuyển</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -414,13 +417,13 @@
     <col min="5" max="5" width="28.42578125" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.28515625" style="1"/>
+    <col min="9" max="10" width="16.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,6 +455,9 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
